--- a/resources/UHC Definitions.xlsx
+++ b/resources/UHC Definitions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harrisonwilde/Library/Mobile Documents/com~apple~CloudDocs/PhD/Covid19/Consortium/Children/Descriptive Cohort/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harrisonwilde/Library/Mobile Documents/com~apple~CloudDocs/PhD/Covid19/Consortium/Children/Descriptive Cohort/CCU029_01/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E24681-5B00-D641-ABBF-469FB37ADA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50CB2CA-7FC9-3144-BF70-69418F19B8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="46080" windowHeight="25420" xr2:uid="{660FEC27-8849-7944-ACDF-DA086F916D20}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{660FEC27-8849-7944-ACDF-DA086F916D20}"/>
   </bookViews>
   <sheets>
     <sheet name="UHC" sheetId="1" r:id="rId1"/>
@@ -34,167 +34,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
-  <si>
-    <t>Cancer</t>
-  </si>
-  <si>
-    <t>E0,E1,E2,E3,E4,E7,E8</t>
-  </si>
-  <si>
-    <t>I05,I06,I07,I08,I10,I11,I12,I13,I14,I15,I21,I22,I27,I28,I34,I35,I36,I37,I42,I43,I44,Q2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>N0,N11,N12,N13,N15,N18,N31,N32,Q5,Q60,Q61,Q62,Q63,Q64</t>
   </si>
   <si>
-    <t>L1,L4,L85,L93,L94,M0,M1,M3,M41,M42,M43,Q65,Q66,Q67,Q68,Q69,Q7,Q8</t>
-  </si>
-  <si>
-    <t>F7,F8,F9,G1,G2,G3,G4,G5,G6,G7,G8,G9,H17,H18,H19,H26,H33,H35,H40,H42,H46,H47,H48,H54,H90,H91,I673,I675,I69,P21,Q0,Q1,Q9,R62</t>
-  </si>
-  <si>
     <t>I10,I11,I12,I13,I15,I27,I34,I35,I36,I37,I42,I43</t>
   </si>
   <si>
-    <t>M05,M06,M07,M08,M09,M3</t>
-  </si>
-  <si>
     <t>Congenital Syndromes and Anomalies</t>
   </si>
   <si>
     <t>E66</t>
   </si>
   <si>
-    <t>D898,D899</t>
-  </si>
-  <si>
-    <t>K528,K529</t>
-  </si>
-  <si>
-    <t>Q245</t>
-  </si>
-  <si>
     <t>O</t>
   </si>
   <si>
-    <t>B25,B26,B27,B28,B29,D649</t>
-  </si>
-  <si>
-    <t>M01,M02,M03,M04,M303,Q668,Q690,Q691,Q692,Q699,Q700,Q701,Q702,Q703,Q825,Q828,Q829</t>
-  </si>
-  <si>
     <t>P05,P07</t>
   </si>
   <si>
-    <t>M303,M357</t>
-  </si>
-  <si>
     <t>Neurological and Developmental Conditions</t>
   </si>
   <si>
     <t>Digestive and Liver Conditions</t>
   </si>
   <si>
-    <t>Renal and Genitourinary conditions</t>
-  </si>
-  <si>
-    <t>B20,B21,B22,B24,D56,D57,D58,D61,D71,D730,D731,D8</t>
-  </si>
-  <si>
     <t>Blood Disorders and Immune Deficiencies</t>
   </si>
   <si>
-    <t>Digestive and Liver Diseases</t>
-  </si>
-  <si>
     <t>Severe Respiratory Diseases</t>
   </si>
   <si>
-    <t>Renal Diseases</t>
-  </si>
-  <si>
     <t>Arthritis and Connective Tissue Diseases</t>
   </si>
   <si>
-    <t>E10,E11,E12,E13,E14,E22,E23,E24,E25,E26,E27,E7,E80,E81,E82,E88,E89,E84</t>
-  </si>
-  <si>
-    <t>K210,K219,K220,K221,K222,K223,K224,K225,K226,K227,K228,K521,K522,K528,K529,K750,K751,K904,K908</t>
-  </si>
-  <si>
-    <t>D473</t>
-  </si>
-  <si>
-    <t>C,D0,D4</t>
-  </si>
-  <si>
-    <t>B2,D55,D56,D57,D58,D60,D61,D64,D66,D67,D680,D681,D682,D71,D730,D731,D8</t>
-  </si>
-  <si>
-    <t>E231,E232,E739</t>
-  </si>
-  <si>
-    <t>E231,E232,E86,E87,E162</t>
-  </si>
-  <si>
-    <t>F93,F94,F98,F99,G25,G43,G44,G45,G46,G92,G93,G96,G97,G98,H471</t>
-  </si>
-  <si>
-    <t>N0,N11,N12,N13,N15,N18</t>
-  </si>
-  <si>
-    <t>Hypertension and Cardiac Valves and Cardiomyopathy</t>
-  </si>
-  <si>
-    <t>Muscle and Skin and Arthritis</t>
-  </si>
-  <si>
     <t>Endocrine Conditions</t>
   </si>
   <si>
     <t>Respiratory Conditions</t>
   </si>
   <si>
-    <t>Congenital Heart Disease and Hypertension and Acquired Heart disease</t>
-  </si>
-  <si>
-    <t>Cancer and Neoplasms</t>
-  </si>
-  <si>
-    <t>Prematurity and low birth weight</t>
-  </si>
-  <si>
-    <t>F7,F80,F82,F83,F84,F85,F86,F87,F88,F89,G1,G20,G21,G22,G23,G24,G26,G27,G28,G29,G3,G7,G8</t>
-  </si>
-  <si>
-    <t>Severe Neurological and  Developmental Conditions</t>
-  </si>
-  <si>
-    <t>Q0,Q2,Q3,Q9,Q60,Q61,Q4,Q79,Q80,Q81,Q897</t>
-  </si>
-  <si>
-    <t>Q245,Q38</t>
-  </si>
-  <si>
-    <t>P27</t>
-  </si>
-  <si>
-    <t>K21,K22</t>
-  </si>
-  <si>
-    <t>K44,K50,K51,K52,K71,K721,K740,K741,K744,K745,K75,K754,K90,Q35,Q36,Q37,Q39,Q4</t>
-  </si>
-  <si>
-    <t>E84,J380,J386,J41,J42,J43,J44,J45,J46,J47,J82,J84,J99,Q30,Q31,Q32,Q33,Q34</t>
-  </si>
-  <si>
     <t>J380,J386,J44,J45,J46,J47,J82,J84,J99</t>
   </si>
   <si>
-    <t>K44,K50,K51,K52,K71,K721,K740,K741,K744,K745,K754,K75,K90</t>
-  </si>
-  <si>
     <t>UHC Name</t>
   </si>
   <si>
@@ -204,32 +87,100 @@
     <t>Include Codes (Only in 5 Year Lookback)</t>
   </si>
   <si>
-    <t>Include Code Chapter Filters (Only in 5 Year Lookback)</t>
-  </si>
-  <si>
-    <t>Include Code Chapter Filters</t>
-  </si>
-  <si>
-    <t>Pregnancy (Note here the standard approach does not apply, we only count pregnancy codes occurring in the previous 9 months OR within the admission if one is present)</t>
-  </si>
-  <si>
     <t>Obesity (Note here BMI values and Weight-for-age / BMI-for-age Z-scores may imply this UHC)</t>
+  </si>
+  <si>
+    <t>C,D0,D37,D38,D39,D4</t>
+  </si>
+  <si>
+    <t>B20,B21,B22,B24,D55,D56,D57,D58,D59,D60,D61,D640,D644,D66,D67,D680,D681,D682,D70,D71,D720,D730,D731,D761,D763,D8,R16</t>
+  </si>
+  <si>
+    <t>E00,E10,E11,E12,E13,E14,E20,E21,E22,E23,E24,E25,E26,E27,E3,E4,E6,E7,E80,E83,E84,E85,E88,E89</t>
+  </si>
+  <si>
+    <t>F72,F73,F78,F79,F83,F84,F88,F89,G1,G20,G21,G22,G23,G24,G3,G40,G45,G47,G5,G6,G7,G8,G91,G94,P21,Q0,Q1,Q90,Q91,Q92,Q93,R568,R62,R94</t>
+  </si>
+  <si>
+    <t>J380,J386,J41,J42,J43,J44,J45,J46,J47,J82,J84,J984,J99,Q30,Q31,Q32,Q33,Q34</t>
+  </si>
+  <si>
+    <t>B27</t>
+  </si>
+  <si>
+    <t>I05,I06,I07,I08,I09,I10,I11,I12,I13,I15,I27,I28,I31,I34,I35,I36,I37,I42,I43,I44,I45,I47,I48,I49,I50,I51,I52,Q2</t>
+  </si>
+  <si>
+    <t>K44,K50,K51,K71,K721,K740,K741,K744,K745,K746,K75,K76,K90,Q35,Q36,Q37,Q39,Q4</t>
+  </si>
+  <si>
+    <t>L1,L85,L93,L94,M05,M06,M07,M08,M09,M300,M301,M302,M31,M321,M328,M329,M34,M35,M41,M42,M43,Q65,Q67,Q71,Q72,Q73,Q74,Q75,Q76,Q77,Q78,Q79,Q80,Q81,Q85,Q87,Q89</t>
+  </si>
+  <si>
+    <t>Prematurity and Low Birth Weight</t>
+  </si>
+  <si>
+    <t>Renal and Genitourinary Conditions</t>
+  </si>
+  <si>
+    <t>Blood Disorder and Immune Deficiencies</t>
+  </si>
+  <si>
+    <t>Cancer and Neoplasms (Excluding Benign Tumours)</t>
+  </si>
+  <si>
+    <t>Congenital Heart Disease, Hypertension and Acquired Heart Disease</t>
+  </si>
+  <si>
+    <t>Muscle, Skin and Arthritis</t>
+  </si>
+  <si>
+    <t>Pregnancy (NOTE: the standard approach does not apply, we only count pregnancy codes occurring in the previous 9 months OR within the admission if one is present)</t>
+  </si>
+  <si>
+    <t>Obesity (NOTE: BMI values and Weight-for-age / BMI-for-age Z-scores may imply this UHC)</t>
+  </si>
+  <si>
+    <t>C,D0</t>
+  </si>
+  <si>
+    <t>B20,B21,B22,B24,D56,D57,D58,D61,D71,D720,D730,D731,D8</t>
+  </si>
+  <si>
+    <t>E10,E11,E12,E13,E14,E22,E23,E24,E25,E26,E27,E70,E71,E72,E74,E75,E76,E79,E84</t>
+  </si>
+  <si>
+    <t>F72,F73,F84,G1,G20,G21,G22,G23,G24,G26,G3,G40,G45,G7,G8</t>
+  </si>
+  <si>
+    <t>K44,K50,K51,K71,K721,K740,K741,K744,K745,K75,N03,N04,N183,N184,N185</t>
+  </si>
+  <si>
+    <t>M05,M06,M07,M08,M09,M300,M301,M302,M31,M321,M34,M35</t>
+  </si>
+  <si>
+    <t>Q0,Q20,Q210,Q212,Q213,Q214,Q218,Q22,Q23,Q242,Q244,Q245,Q246,Q25,Q26,Q31,Q32,Q33,Q34,Q39,Q442,Q60,Q61,Q79,Q80,Q81,Q897,Q9</t>
+  </si>
+  <si>
+    <t>Cancer (Excluding Benign Tumours)</t>
+  </si>
+  <si>
+    <t>Severe Neurological and Developmental Conditions</t>
+  </si>
+  <si>
+    <t>Hypertension, Cardiac Valves and Cardiomyopathy</t>
+  </si>
+  <si>
+    <t>Digestive, Liver and Renal Diseases</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -270,25 +221,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -604,186 +552,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486EB8DA-65B2-CD43-8AA3-924E352FB5F6}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="50.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="25.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="50.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="1" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C6" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
+      <c r="B7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" ht="71" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -793,186 +689,124 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37074F1F-200A-DB4D-B2B7-F81793A87C26}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="50.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="25.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="50.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.83203125" customWidth="1"/>
-    <col min="7" max="7" width="40.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4"/>
+    <row r="1" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="C2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>22</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="B9" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>26</v>
+    </row>
+    <row r="10" spans="1:3" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="B11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
